--- a/format_competitive_question.xlsx
+++ b/format_competitive_question.xlsx
@@ -46,7 +46,7 @@
     <t>time_duration</t>
   </si>
   <si>
-    <t>5aef8a21-837d-47b4-8cd3-2b5afd23a5a4</t>
+    <t>3ac0912a-5c96-4bcd-a92b-21e8a714688d</t>
   </si>
 </sst>
 </file>
